--- a/Baltico_Multi K-means/Gadus morhua/output_sd/all_centroidi_annotated_31_2020_gadus_morhua_sd.xlsx
+++ b/Baltico_Multi K-means/Gadus morhua/output_sd/all_centroidi_annotated_31_2020_gadus_morhua_sd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\Risk Assessment Mar Baltico - NOVEMBRE\Risk assessment_novembre\Baltico_Multi K-means\Gadus morhua\output_sd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\Risk Assessment Mar Baltico - NOVEMBRE\Risk assessment_novembre\BalticEcosystemRiskAssessment\Baltico_Multi K-means\Gadus morhua\output_sd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C8731B-7B3D-42FF-98E2-389E9A55D6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC018A0-25CC-49B3-AA33-882219F611B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-2460" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35950" yWindow="100" windowWidth="32480" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_centroidi_annotated_31_2020" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="62">
   <si>
     <t>centroid_id</t>
   </si>
@@ -225,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,8 +376,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,6 +607,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -788,7 +802,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -845,6 +859,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1222,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO39"/>
+  <dimension ref="A1:BO47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="31.9" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4125,7 +4145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>10</v>
       </c>
@@ -4173,7 +4193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>18</v>
       </c>
@@ -4221,7 +4241,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>20</v>
       </c>
@@ -4269,7 +4289,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="12">
         <v>21</v>
       </c>
@@ -4317,7 +4337,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>26</v>
       </c>
@@ -4365,7 +4385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>29</v>
       </c>
@@ -4413,7 +4433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>31</v>
       </c>
@@ -4459,6 +4479,150 @@
       <c r="O39" s="1">
         <f t="shared" si="13"/>
         <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="M45" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N45" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="12">
+        <v>2</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L46" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="N46" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="O46" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="P46" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="12">
+        <v>21</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K47" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L47" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="M47" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N47" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="O47" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="P47" s="13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
